--- a/Assets/ExcelFile/ServeQuestDB.xlsx
+++ b/Assets/ExcelFile/ServeQuestDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unityhub\storage\FinalProject\Assets\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7068728C-C11D-4336-9138-B662AE09DE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C910D83-04BE-4260-8F93-20F7A84ED45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B3A9DE6C-8FB1-4993-A516-889844C681F3}"/>
   </bookViews>
@@ -33,8 +33,173 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>kkh</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{43C44C8B-195F-4884-815D-BBE3B1417747}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>kkh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">마법사
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>100.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">대장장이
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>200.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">요리사
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>300</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">잡화
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>400</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">여관
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>500</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">검술
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>9999</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">미정
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>Reword</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,14 +217,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>도토리수집</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도토리ㅏ가져와</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,55 +269,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>도토리가필요해,ㅇㅇㅇ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목검가져오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목검 rr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목검가꼬와,빨리ㅏ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고마워 이건 보답이야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포션 가져가기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포션을 가져가자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포션이 필요한데,가져다줄래??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅋㅋ감사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>teset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ss</t>
+    <t>땔감이 필요해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>땔감을 가져다주자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>많이 못보던 사람이네??,지금 혹시 할일이 없다면 내 부탁좀 들어주지 않을래?,나는 대장간을 운영하는 대장장이인데,화로에 지필 나무가 많이 필요해,마을 밖에 초원에서 땔감좀 구해주면 나한테는 필요없는 물건을 줄게,몸 조심해!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생각보다 빨리 구해왔네,도와줘서 고마워,이건 옛날에 내가 모험가일때 쓰던 포션인데,더 이상 모험을 하지않으니까 이건 주는게 맞는거같아,부디 잘써줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제작에 대하여[튜토리얼]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜토리얼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>또 보는구나!, 혹시 이제 앞으로 모험을 나가게되면 수많은 재료들을 볼 수 있을텐데,그걸 그냥 그대로 두기보단 나에게 가져오는게 어때?,내가 쓸만하게 가공해줄 수 있으니까,그럼 제작에 대해 알려줄테니,옆집에 상점관리인에게 나무검 레시피를 하나 구해와</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제작은 레시피와 레시피에 적혀진 갖가지 재료들이 꼭 필요해, 대화가 끝나면 나에게 제작을 해보지 않을래?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아저씨의 고민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터사냥임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요 며칠동안 잠을 통 자지못했어, 혹시 바쁘지 않다면 내 부탁을 좀 들어줄래??,우리 집 앞에 몬스터들이 내 잠을 방해해,걔내들을 좀 처리해줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부탁을 들어줘서 고마워,혹시 나중에 또 바쁘지않으면 들어주겠어??,나중에 보자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아저씨의 고민2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>또 보는구나!, 이번에도 너의 도움이 필요해, 이번엔 저번보다 개채수가 많이 늘어난거 같아, 처리하게 되면 알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매번 도움을 줘서 고마워, 나중에 또 보자!,이건 내 답례야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아저씨의 고민3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터사냥임 최종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 불면증이 날이 갈 수록 악화 되가고있어,이건 몬스터의 문제가 아닌거 같아, 혹시 상점이나 너가 따듯한 스프를 가지고 있다면 혹시 가져다 주지않을래?,난 피곤해서 움직일 수 가없어 미안해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 고마워,덕분에 오늘은 푹 잘 수 있을것만 같아,매번 부탁을 들어줘서 고마워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야영의 대하여[튜토리얼]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕! 처음보는 모험가네??,혹시 야영에 대해 알고있어?,혹시 한번도 야영을 해보지 못했다면 내 부탁들 좀 들어줄래??,간이 야영지로 사용할 짚과 나무를 좀 구해다줘!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용케 빨리 잘 모아왔구나!, 이제그럼 야영에 대해 설명해줄게, 야영이란 마을 외 지역에서 간단하게 시간을 보낼 수 있는 행위를 뜻해!,너에게 간이 야영키트를 줬으니 한번 사용해보도록 해봐!, 야영방법은 [T]를 눌르면 자연스럽게 알게될거야!, 그럼 나중에보자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -168,7 +361,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +376,26 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -527,11 +740,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFA5ABC-5119-4986-967B-E769D16FD73A}">
-  <dimension ref="A1:Q5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFA5ABC-5119-4986-967B-E769D16FD73A}">
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -545,43 +758,43 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>0</v>
@@ -601,22 +814,22 @@
         <v>10001</v>
       </c>
       <c r="B2" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F2">
-        <v>3000</v>
+        <v>2001</v>
       </c>
       <c r="G2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -625,19 +838,19 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="1">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3000</v>
+        <v>10100000</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -646,7 +859,7 @@
         <v>19</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -657,101 +870,77 @@
         <v>100</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3">
-        <v>10010000</v>
+        <v>22</v>
+      </c>
+      <c r="F3" s="1">
+        <v>10110000</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
       <c r="N3">
-        <v>3000</v>
+        <v>10110000</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>10003</v>
       </c>
-      <c r="B4">
-        <v>1000</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4">
-        <v>10100000</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>-1</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>-1</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>10001000</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="K4" s="1">
+        <v>5</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -760,57 +949,125 @@
         <v>10004</v>
       </c>
       <c r="B5" s="1">
-        <v>100</v>
-      </c>
-      <c r="C5">
+        <v>1200</v>
+      </c>
+      <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
       <c r="J5" s="1">
         <v>1</v>
       </c>
       <c r="K5" s="1">
+        <v>5</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2</v>
+      </c>
+      <c r="M5" s="1">
+        <v>5</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>10005</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="1">
         <v>1</v>
       </c>
-      <c r="L5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5">
-        <v>123</v>
+      <c r="K6" s="1">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>10</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>10006</v>
+      </c>
+      <c r="B7">
+        <v>400</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <v>2003</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>2001</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3</v>
+      </c>
+      <c r="P7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Assets/ExcelFile/ServeQuestDB.xlsx
+++ b/Assets/ExcelFile/ServeQuestDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unityhub\storage\FinalProject\Assets\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C910D83-04BE-4260-8F93-20F7A84ED45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CD7839-C9B9-4B5C-BD56-A731C18CA088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B3A9DE6C-8FB1-4993-A516-889844C681F3}"/>
+    <workbookView xWindow="-465" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{B3A9DE6C-8FB1-4993-A516-889844C681F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -199,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="88">
   <si>
     <t>Reword</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -277,10 +277,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>많이 못보던 사람이네??,지금 혹시 할일이 없다면 내 부탁좀 들어주지 않을래?,나는 대장간을 운영하는 대장장이인데,화로에 지필 나무가 많이 필요해,마을 밖에 초원에서 땔감좀 구해주면 나한테는 필요없는 물건을 줄게,몸 조심해!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>생각보다 빨리 구해왔네,도와줘서 고마워,이건 옛날에 내가 모험가일때 쓰던 포션인데,더 이상 모험을 하지않으니까 이건 주는게 맞는거같아,부디 잘써줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -354,6 +350,205 @@
   </si>
   <si>
     <t>용케 빨리 잘 모아왔구나!, 이제그럼 야영에 대해 설명해줄게, 야영이란 마을 외 지역에서 간단하게 시간을 보낼 수 있는 행위를 뜻해!,너에게 간이 야영키트를 줬으니 한번 사용해보도록 해봐!, 야영방법은 [T]를 눌르면 자연스럽게 알게될거야!, 그럼 나중에보자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈련이 필요해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요즘 쇠질을 못했더니 몸이 좀 뻐근하네,혹시 거기 너 할 일 없으면 운동에 쓸만한 물건 좀 가져다 줄래?,이 근처에서 아령으로 사용 할 큰 돌좀 구해줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 정도면 괜찮겠어,고마워 몸 조심해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈련이 필요해2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아령으로 구해다준게 그만 운동하다 부러져 버렸어…,혹시…한번만 더 들어줄래?..,이번엔 조금 더 튼튼한 광물이 필요할꺼 같아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래!! 이정도면  꽤 괜찮은 아령을 만들 수 있을꺼야!!,이거는 부러진 아령으로 잠깐 만들어본 무기인데 한번 사용해봐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상인의 골칫거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>많이 못 보던 사람이네??,지금 혹시 할일이 없다면 내 부탁좀 들어주지 않을래?,나는 대장간을 운영하는 대장장이인데,화로에 지필 나무가 많이 필요해,마을 밖에 초원에서 땔감좀 구해주면 나한테는 필요없는 물건을 줄게,몸 조심해!</t>
+  </si>
+  <si>
+    <t>앞에 가로막고있는 몬스터때문에 교역을 할 수가 없어, 나는 물건을 지켜야해서 혹시 가능하다면,몬스터좀 대신 처치해줄래??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덕분에 마을로 돌아갈 수 있을꺼같아, 이거는 교역품인데 우리 사장님 몰래 하나줄게, 잘 사용하길 바래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도적이 되고싶은자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도적이 되고싶은자…,나에게로…,어라! 방금말은 혼잣말이야, 나는 이 아래 하수구에서 살고있는데,촉촉한 바나나가 먹고싶어,아…먹고싶다..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???,설마 내 혼잣말을 듣고 바나나를 가져다준거야??,너무 고마워…,보답은 줄 수있는게 없고…정보를 좀 주자면,어떤 보스는 폭발물 같은 무언가에 많이 취약하다고해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잃어버린 돈 주머니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일행에 필요한 물품을 사러가던 도중에, 그만 돈을 잃어버리고 말았어..,혹시…돈 좀 빌려줄 수 있겟니?...,아..그래..어쩔 수없네…,누가 찾아주지 않으려나…(빤히 바라보며)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐야 진짜 구해왔네?(사실 돈은 아까 찾았는데),정말 너무 고마워(그럼 이건 누가 떨어트린거야??),이건 내가 착용하던 장비인데 너가 사용하면 좋을꺼같아,(낡은거는 얘 주고 나는 이 돈으로 일행몰래 장비나 사야겠다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바쁘니까 왠만하면 말 걸지마,뭐?? 도와줄게 없냐고??,그럼 나무나 좀 패오던지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래.그래,그 나무는 저 쪽에 좀 쌓아두고,아직 할 일이 더있어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월동준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월동준비2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모피옷을 만들 가죽이 필요해,가져오거나 말던지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말끝마다 퉁명스럽게 대답해서 미안해…,사실 나는 이방인이 많이 두려워서 그래…,다음에 오면 맛있는 밥이라도 한끼 대접할게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데마시아(?)를 위하여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데마시아를 위하여!!,너가 오기전 어떤 이방인이 항상 외치던말인데,몬스터와 싸우기전에 각오를 세긴다는 말이래,너무 좋지않아?? 그래서 나는 평소에도 이 말을 자주 쓰고있어,지금은 저 앞에 몬스터를 처치하는게 조금 무섭네…,혹시 대신…부탁 좀 해도될까?...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고마워!!!!,싸우기전에 너의 외침 소리 잘들었어!!,덕분에 나도 각오를 다시 불태울 수 있을꺼같아,같이 다시 외치자!,데마시아를 위하여!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>균형의 수호자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 여기를 관리하는 정령에게 위임을 받고, 괴물의 개체를 조절하고 있어,요즘따라 부쩍 수가 많이 늘어나서 벅찬감이 없지않았는데,혹시 나 좀 도와주겠어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이걸로 수는 어느정도 관리가 된거같아, 하지만 조만간 다시 늘어나겠지…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>균형의 수호자2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수를 일부 조절했지만 생각보다 속도가 많이 빠른거같아,한번 더 도와주겠어??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아 이걸로 어느정도는 마무리된거 같군,능력이 좀 있는거같은데 관리자인 정령에게도 한번 찾아가보겠어??,정령은 숲 안쪽 깊은곳에서 자리를 잡고있을꺼야,가는길에 괴물들이 많으니 꼭 조심하고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수상한인물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숲거주민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강인한여자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모험가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정령의 부탁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숲의정령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그대가 올 것을 이미 자연에게 듣고있었다.,최근 괴물의 수가 늘어난 것은 깊숙한 곳에 존재하는 {중간보스}가 자리를 잡고 급격하게 증가하기 시작했지,부디 {중간보스}를 꼭 물리쳐 주게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자연도 그대에게 감사하는거 같군,이로써 숲은 다시 평화가 올것이야,숲의 더 깊은곳도 존재하네만 부디 그쪽은 되도록 가지말게나,그곳은 나로써도 관리할 수 없는 알수없는 무언가가 존재하는듯해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌고도는 역병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역병의사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전염병으로 환자들의 상태가 점점 더 악화되고있어…,지금의 나로써는 더 이상의 재료가 없기때문에 도움이 필요해, 근처에서 약초로 쓸만한것을 구해주지 않을래??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이정도면 충분해!!,고마워!! 덕분에 더 많은 환자를 구할 수 있을꺼같아!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노예 해방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑인노예</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그…어…그…어ㅓ어..(목이 말라..),고…마워..,이 앞은 몬스터에게 붙잡힌 주민들이 노예가 되서 일하고있어,부디 제발 그들을 처치하고 우리를 해방해줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 다시 마을로 돌아갈 수 있어,가족들을 살아서 볼 수 있다는 꿈이 드디어 이루어지는군,너는 마을의 영웅이야..</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -741,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFA5ABC-5119-4986-967B-E769D16FD73A}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -856,10 +1051,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" t="s">
         <v>19</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -873,10 +1068,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
       </c>
       <c r="F3" s="1">
         <v>10110000</v>
@@ -897,10 +1092,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" t="s">
         <v>23</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -914,13 +1109,15 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1">
@@ -938,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="P4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -955,12 +1152,14 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1">
@@ -982,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" t="s">
         <v>30</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -999,10 +1198,13 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>33</v>
+      <c r="G6" s="1">
+        <v>0</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
@@ -1023,10 +1225,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" t="s">
         <v>34</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1040,10 +1242,10 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7">
         <v>2003</v>
@@ -1057,11 +1259,694 @@
       <c r="I7" s="1">
         <v>3</v>
       </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
       <c r="P7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" t="s">
         <v>37</v>
       </c>
-      <c r="Q7" t="s">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>10007</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
         <v>38</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8">
+        <v>9999</v>
+      </c>
+      <c r="G8">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>9999</v>
+      </c>
+      <c r="I8">
+        <v>9</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>10008</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9">
+        <v>9999</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <v>9999</v>
+      </c>
+      <c r="I9">
+        <v>9</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>10009</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>9999</v>
+      </c>
+      <c r="K10">
+        <v>11</v>
+      </c>
+      <c r="L10">
+        <v>11</v>
+      </c>
+      <c r="M10">
+        <v>11</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10010</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10110000</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10011</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10110000</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>10012</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="1">
+        <v>10110000</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>10013</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="1">
+        <v>10110000</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>10014</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="1">
+        <v>10110000</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>10015</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="1">
+        <v>10110000</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>10016</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="1">
+        <v>10110000</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>10017</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="1">
+        <v>10110000</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>10018</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="1">
+        <v>10110000</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>10019</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="1">
+        <v>10110000</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>10020</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>10110000</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>10021</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>10110000</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>10022</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>10110000</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>10023</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>10110000</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>10024</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>10110000</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>10025</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>10110000</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>10026</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>10110000</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>10027</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>10110000</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>10028</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>10110000</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>10029</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>10110000</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>10030</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>10110000</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>10031</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>10110000</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelFile/ServeQuestDB.xlsx
+++ b/Assets/ExcelFile/ServeQuestDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unityhub\storage\FinalProject\Assets\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CD7839-C9B9-4B5C-BD56-A731C18CA088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9440BC63-8CD8-44B3-9237-973E5A978AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-465" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{B3A9DE6C-8FB1-4993-A516-889844C681F3}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{B3A9DE6C-8FB1-4993-A516-889844C681F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -199,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
   <si>
     <t>Reword</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,10 +301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>몬스터사냥임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>요 며칠동안 잠을 통 자지못했어, 혹시 바쁘지 않다면 내 부탁을 좀 들어줄래??,우리 집 앞에 몬스터들이 내 잠을 방해해,걔내들을 좀 처리해줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -329,10 +325,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>몬스터사냥임 최종</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>내 불면증이 날이 갈 수록 악화 되가고있어,이건 몬스터의 문제가 아닌거 같아, 혹시 상점이나 너가 따듯한 스프를 가지고 있다면 혹시 가져다 주지않을래?,난 피곤해서 움직일 수 가없어 미안해</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -549,6 +541,10 @@
   </si>
   <si>
     <t>이제 다시 마을로 돌아갈 수 있어,가족들을 살아서 볼 수 있다는 꿈이 드디어 이루어지는군,너는 마을의 영웅이야..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아저씨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -938,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFA5ABC-5119-4986-967B-E769D16FD73A}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -948,7 +944,9 @@
     <col min="4" max="4" width="17.75" customWidth="1"/>
     <col min="5" max="5" width="29.75" customWidth="1"/>
     <col min="6" max="9" width="21.875" customWidth="1"/>
-    <col min="10" max="17" width="23.375" customWidth="1"/>
+    <col min="10" max="15" width="23.375" customWidth="1"/>
+    <col min="16" max="16" width="83.5" customWidth="1"/>
+    <col min="17" max="17" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -1051,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
         <v>19</v>
@@ -1112,7 +1110,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1">
@@ -1135,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="P4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1152,10 +1150,10 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -1181,10 +1179,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" t="s">
         <v>29</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1198,10 +1196,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -1225,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1242,7 +1240,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>21</v>
@@ -1263,10 +1261,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1274,16 +1272,16 @@
         <v>10007</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F8">
         <v>9999</v>
@@ -1301,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1312,16 +1310,16 @@
         <v>10008</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F9">
         <v>9999</v>
@@ -1339,10 +1337,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1350,16 +1348,16 @@
         <v>10009</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1383,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1394,16 +1392,16 @@
         <v>10010</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F11" s="1">
         <v>10110000</v>
@@ -1415,10 +1413,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1426,16 +1424,16 @@
         <v>10011</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F12" s="1">
         <v>10110000</v>
@@ -1447,10 +1445,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1458,16 +1456,16 @@
         <v>10012</v>
       </c>
       <c r="B13" s="1">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F13" s="1">
         <v>10110000</v>
@@ -1479,10 +1477,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1490,16 +1488,16 @@
         <v>10013</v>
       </c>
       <c r="B14" s="1">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F14" s="1">
         <v>10110000</v>
@@ -1511,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1522,16 +1520,16 @@
         <v>10014</v>
       </c>
       <c r="B15" s="1">
-        <v>1100</v>
+        <v>1700</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F15" s="1">
         <v>10110000</v>
@@ -1543,10 +1541,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1554,16 +1552,16 @@
         <v>10015</v>
       </c>
       <c r="B16" s="1">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F16" s="1">
         <v>10110000</v>
@@ -1575,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1586,16 +1584,16 @@
         <v>10016</v>
       </c>
       <c r="B17" s="1">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F17" s="1">
         <v>10110000</v>
@@ -1607,10 +1605,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1618,16 +1616,16 @@
         <v>10017</v>
       </c>
       <c r="B18" s="1">
-        <v>1100</v>
+        <v>1900</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F18" s="1">
         <v>10110000</v>
@@ -1639,10 +1637,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1650,16 +1648,16 @@
         <v>10018</v>
       </c>
       <c r="B19" s="1">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F19" s="1">
         <v>10110000</v>
@@ -1671,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1682,16 +1680,16 @@
         <v>10019</v>
       </c>
       <c r="B20" s="1">
-        <v>1100</v>
+        <v>2100</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F20" s="1">
         <v>10110000</v>
@@ -1703,251 +1701,95 @@
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>10020</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1100</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>10110000</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="N21" s="1">
-        <v>0</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>10021</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1100</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1">
-        <v>10110000</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="N22" s="1">
-        <v>0</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>10022</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1100</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>10110000</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="N23" s="1">
-        <v>0</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>10023</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1100</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
-        <v>10110000</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="N24" s="1">
-        <v>0</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>10024</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1100</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>10110000</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="N25" s="1">
-        <v>0</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>10025</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1100</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
-        <v>10110000</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="N26" s="1">
-        <v>0</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>10026</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1100</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1">
-        <v>10110000</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="N27" s="1">
-        <v>0</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>10027</v>
-      </c>
-      <c r="B28" s="1">
-        <v>1100</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1">
-        <v>10110000</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="N28" s="1">
-        <v>0</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>10028</v>
-      </c>
-      <c r="B29" s="1">
-        <v>1100</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1">
-        <v>10110000</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="N29" s="1">
-        <v>0</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="N29" s="1"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>10029</v>
-      </c>
-      <c r="B30" s="1">
-        <v>1100</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1">
-        <v>10110000</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="N30" s="1">
-        <v>0</v>
-      </c>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>10030</v>
-      </c>
-      <c r="B31" s="1">
-        <v>1100</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1">
-        <v>10110000</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="N31" s="1">
-        <v>0</v>
-      </c>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="N31" s="1"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>10031</v>
-      </c>
-      <c r="B32" s="1">
-        <v>1100</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1">
-        <v>10110000</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="N32" s="1">
-        <v>0</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="N32" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ExcelFile/ServeQuestDB.xlsx
+++ b/Assets/ExcelFile/ServeQuestDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unityhub\storage\FinalProject\Assets\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9440BC63-8CD8-44B3-9237-973E5A978AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C67E49-00E4-4273-B5B8-B9B9A76DE6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{B3A9DE6C-8FB1-4993-A516-889844C681F3}"/>
+    <workbookView xWindow="0" yWindow="4215" windowWidth="21555" windowHeight="11385" xr2:uid="{B3A9DE6C-8FB1-4993-A516-889844C681F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -249,10 +249,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>QuestItemCount2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>QuestMonster</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -545,6 +541,10 @@
   </si>
   <si>
     <t>아저씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuestItem2Count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -935,7 +935,7 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -975,19 +975,19 @@
         <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>0</v>
@@ -1013,13 +1013,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
       <c r="F2">
-        <v>2001</v>
+        <v>10202001</v>
       </c>
       <c r="G2" s="1">
         <v>3</v>
@@ -1043,16 +1043,16 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>10100000</v>
+        <v>10161000</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -1066,16 +1066,16 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
       <c r="F3" s="1">
-        <v>10110000</v>
+        <v>10202002</v>
       </c>
       <c r="G3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1084,16 +1084,16 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3">
-        <v>10110000</v>
+        <v>10162000</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" t="s">
         <v>22</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -1107,15 +1107,13 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
+      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1">
@@ -1127,16 +1125,16 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1">
-        <v>0</v>
+        <v>10114201</v>
       </c>
       <c r="O4" s="1">
         <v>0</v>
       </c>
       <c r="P4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1150,14 +1148,12 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1">
@@ -1173,16 +1169,16 @@
         <v>5</v>
       </c>
       <c r="N5" s="1">
-        <v>0</v>
+        <v>10114101</v>
       </c>
       <c r="O5" s="1">
         <v>0</v>
       </c>
       <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1193,40 +1189,33 @@
         <v>1200</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="1">
+        <v>10309000</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="N6" s="1">
+        <v>10113007</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
-        <v>10</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6">
-        <v>10</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>31</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1240,19 +1229,19 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7">
-        <v>2003</v>
+        <v>10202003</v>
       </c>
       <c r="G7" s="1">
         <v>3</v>
       </c>
       <c r="H7">
-        <v>2001</v>
+        <v>10202001</v>
       </c>
       <c r="I7" s="1">
         <v>3</v>
@@ -1261,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" t="s">
         <v>34</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1275,34 +1264,28 @@
         <v>1100</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="1">
+        <v>10202004</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5</v>
+      </c>
+      <c r="N8" s="1">
+        <v>10302000</v>
+      </c>
+      <c r="P8" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8">
-        <v>9999</v>
-      </c>
-      <c r="G8">
-        <v>9</v>
-      </c>
-      <c r="H8">
-        <v>9999</v>
-      </c>
-      <c r="I8">
-        <v>9</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>37</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1313,34 +1296,28 @@
         <v>1100</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="1">
+        <v>10202004</v>
+      </c>
+      <c r="G9" s="1">
+        <v>10</v>
+      </c>
+      <c r="N9" s="1">
+        <v>10022000</v>
+      </c>
+      <c r="P9" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9">
-        <v>9999</v>
-      </c>
-      <c r="G9">
-        <v>9</v>
-      </c>
-      <c r="H9">
-        <v>9999</v>
-      </c>
-      <c r="I9">
-        <v>9</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>40</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1351,20 +1328,16 @@
         <v>1300</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
       <c r="J10">
         <v>9999</v>
       </c>
@@ -1381,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q10" t="s">
         <v>44</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1398,25 +1371,28 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10202008</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>10161000</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="1">
-        <v>10110000</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>47</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1430,25 +1406,25 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10161000</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="N12" s="1">
+        <v>10114104</v>
+      </c>
+      <c r="P12" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="1">
-        <v>10110000</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>50</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1462,25 +1438,25 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13" s="1">
         <v>10110000</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N13" s="1">
-        <v>0</v>
+        <v>10114103</v>
       </c>
       <c r="P13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q13" t="s">
         <v>52</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1494,25 +1470,25 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="1">
+        <v>10200000</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <v>10114202</v>
+      </c>
+      <c r="P14" t="s">
         <v>55</v>
       </c>
-      <c r="E14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="1">
-        <v>10110000</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>56</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1523,28 +1499,23 @@
         <v>1700</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="N15" s="1">
+        <v>10114102</v>
+      </c>
+      <c r="P15" t="s">
         <v>58</v>
       </c>
-      <c r="E15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="1">
-        <v>10110000</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>59</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1555,28 +1526,23 @@
         <v>1800</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
         <v>61</v>
       </c>
-      <c r="E16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="1">
-        <v>10110000</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>62</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1587,28 +1553,23 @@
         <v>1800</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" t="s">
         <v>64</v>
       </c>
-      <c r="E17" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" s="1">
-        <v>10110000</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>65</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1619,28 +1580,23 @@
         <v>1900</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" t="s">
         <v>74</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" s="1"/>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="1">
-        <v>10110000</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="N18" s="1">
-        <v>0</v>
-      </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>76</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1654,25 +1610,25 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" t="s">
         <v>78</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" s="1">
+        <v>10202002</v>
+      </c>
+      <c r="G19">
+        <v>30</v>
+      </c>
+      <c r="N19" s="1">
+        <v>10161000</v>
+      </c>
+      <c r="P19" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="1">
-        <v>10110000</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="N19" s="1">
-        <v>0</v>
-      </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>80</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1683,28 +1639,23 @@
         <v>2100</v>
       </c>
       <c r="C20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" t="s">
         <v>82</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" s="1"/>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" t="s">
         <v>83</v>
       </c>
-      <c r="F20" s="1">
-        <v>10110000</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="N20" s="1">
-        <v>0</v>
-      </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>84</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
